--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.1/percents/scores-25.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.1/percents/scores-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,123 +52,84 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>dangerous</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
     <t>destroying</t>
   </si>
   <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dumb</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -187,28 +148,31 @@
     <t>important</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>best</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>glad</t>
+    <t>fascinating</t>
   </si>
   <si>
     <t>happy</t>
@@ -217,115 +181,58 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>engagement</t>
+    <t>really</t>
   </si>
   <si>
     <t>incredible</t>
   </si>
   <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
     <t>dear</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>hooked</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>promote</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>available</t>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>op</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>opt</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>media</t>
+    <t>dilemma</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -704,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS53"/>
+  <dimension ref="A1:BS35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,28 +619,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="S1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AB1" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="AK1" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AT1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="BC1" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="BL1" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -935,13 +842,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03775994582573919</v>
+        <v>0.0385536301993008</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -953,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>0.01470229391922071</v>
+        <v>0.01570834994013117</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -977,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.04477572962169017</v>
+        <v>0.04572752030958534</v>
       </c>
       <c r="U3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1001,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AC3">
-        <v>0.1040492209304476</v>
+        <v>0.1568603515933722</v>
       </c>
       <c r="AD3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AE3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1025,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.05502956747731085</v>
+        <v>0.05621243662461661</v>
       </c>
       <c r="AM3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -1049,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AU3">
-        <v>0.08134494430343961</v>
+        <v>0.1359616280318963</v>
       </c>
       <c r="AV3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AW3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -1073,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.07143570804630392</v>
+        <v>0.07298830272866663</v>
       </c>
       <c r="BE3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BF3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1097,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="BM3">
-        <v>0.06841963350134961</v>
+        <v>0.1151417620994161</v>
       </c>
       <c r="BN3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BO3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1121,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1129,13 +1036,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01115137381949413</v>
+        <v>0.01212894330442772</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1147,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.01250815984206369</v>
+        <v>0.01305646449307489</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1171,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01320556724129208</v>
+        <v>0.0143848149899798</v>
       </c>
       <c r="U4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="V4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1195,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AC4">
-        <v>0.08863948463185113</v>
+        <v>0.1296336277117617</v>
       </c>
       <c r="AD4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1219,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.01620784993468907</v>
+        <v>0.01768185822270977</v>
       </c>
       <c r="AM4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AN4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1243,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AU4">
-        <v>0.06971143742453986</v>
+        <v>0.1126261728065938</v>
       </c>
       <c r="AV4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1267,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.02101150224412427</v>
+        <v>0.02295712739507771</v>
       </c>
       <c r="BE4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BF4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1291,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="BM4">
-        <v>0.05893589513132695</v>
+        <v>0.09592803941395887</v>
       </c>
       <c r="BN4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BO4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1315,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1323,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.008974002189627604</v>
+        <v>0.009059454823105677</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -1344,16 +1251,16 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.009932871749026254</v>
+        <v>0.01133649830290051</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1365,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.01050987092275396</v>
+        <v>0.01061166113021306</v>
       </c>
       <c r="U5">
         <v>20</v>
@@ -1392,16 +1299,16 @@
         <v>15</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AC5">
-        <v>0.0717023119824259</v>
+        <v>0.1133802764064481</v>
       </c>
       <c r="AD5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1413,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.01275460214809247</v>
+        <v>0.01288027034829307</v>
       </c>
       <c r="AM5">
         <v>20</v>
@@ -1440,16 +1347,16 @@
         <v>15</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AU5">
-        <v>0.05772497861024355</v>
+        <v>0.09981569447600017</v>
       </c>
       <c r="AV5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1461,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.0163461721086341</v>
+        <v>0.0165100450972211</v>
       </c>
       <c r="BE5">
         <v>20</v>
@@ -1488,16 +1395,16 @@
         <v>15</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="BM5">
-        <v>0.04976782670499521</v>
+        <v>0.0862398004126277</v>
       </c>
       <c r="BN5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BO5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1509,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1517,7 +1424,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.006004982007197054</v>
+        <v>0.006061902503578335</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -1538,16 +1445,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.00991999835626934</v>
+        <v>0.01132365255972288</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1559,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.007112571548867899</v>
+        <v>0.007180204038971156</v>
       </c>
       <c r="U6">
         <v>13</v>
@@ -1586,16 +1493,16 @@
         <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AC6">
-        <v>0.07135532294026284</v>
+        <v>0.1128719376700838</v>
       </c>
       <c r="AD6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1607,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.008731356263617596</v>
+        <v>0.00881464474454528</v>
       </c>
       <c r="AM6">
         <v>13</v>
@@ -1634,16 +1541,16 @@
         <v>1</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AU6">
-        <v>0.05728440953872941</v>
+        <v>0.09908002702431945</v>
       </c>
       <c r="AV6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -1655,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.01132141180721711</v>
+        <v>0.01142974987346388</v>
       </c>
       <c r="BE6">
         <v>13</v>
@@ -1682,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="BM6">
-        <v>0.04927398348675962</v>
+        <v>0.08540384252272405</v>
       </c>
       <c r="BN6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BO6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -1703,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1711,13 +1618,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.004285226938845722</v>
+        <v>0.003887394771654122</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1729,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.006206600753244909</v>
+        <v>0.006546216286986123</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1753,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>277</v>
+        <v>-1</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.005061190112861391</v>
+        <v>0.004570518331268978</v>
       </c>
       <c r="U7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1777,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AC7">
-        <v>0.04588016615769241</v>
+        <v>0.06629436825592352</v>
       </c>
       <c r="AD7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1801,19 +1708,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.006195290136422752</v>
+        <v>0.005568929687629152</v>
       </c>
       <c r="AM7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -1825,19 +1732,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AU7">
-        <v>0.03921660750298211</v>
+        <v>0.06112924204396827</v>
       </c>
       <c r="AV7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1849,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.008009850174120932</v>
+        <v>0.007166387857805431</v>
       </c>
       <c r="BE7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -1873,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="BM7">
-        <v>0.03542311220361489</v>
+        <v>0.05566814107641986</v>
       </c>
       <c r="BN7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BO7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -1897,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1905,13 +1812,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00385078248429297</v>
+        <v>0.003030951251789168</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1923,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.006054491538161794</v>
+        <v>0.004512473114370802</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1947,19 +1854,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.004526942738401394</v>
+        <v>0.003590102019485578</v>
       </c>
       <c r="U8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1971,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="AC8">
-        <v>0.03407980046290308</v>
+        <v>0.03597015014707681</v>
       </c>
       <c r="AD8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1995,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.005515176955944476</v>
+        <v>0.00440732237227264</v>
       </c>
       <c r="AM8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -2019,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="AU8">
-        <v>0.03057946698856381</v>
+        <v>0.03598893539421074</v>
       </c>
       <c r="AV8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX8">
         <v>1</v>
@@ -2043,19 +1950,19 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.007096351704013408</v>
+        <v>0.005714874936731938</v>
       </c>
       <c r="BE8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BF8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG8">
         <v>0</v>
@@ -2067,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="BM8">
-        <v>0.02858676319931486</v>
+        <v>0.03562067863144682</v>
       </c>
       <c r="BN8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BO8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -2091,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2099,7 +2006,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.003002491003598527</v>
+        <v>0.003028382103153642</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -2117,19 +2024,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.004318751833426691</v>
+        <v>0.00348874620442374</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -2141,13 +2048,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.003556285774433949</v>
+        <v>0.003577898563466833</v>
       </c>
       <c r="U9">
         <v>6</v>
@@ -2165,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AC9">
-        <v>0.03248775826082078</v>
+        <v>0.03556347915798536</v>
       </c>
       <c r="AD9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -2189,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>277</v>
+        <v>4</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004365678131808798</v>
+        <v>0.004381038005463036</v>
       </c>
       <c r="AM9">
         <v>6</v>
@@ -2213,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="AU9">
-        <v>0.02652523817426315</v>
+        <v>0.03540040143286616</v>
       </c>
       <c r="AV9">
         <v>7</v>
@@ -2237,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.005660705903608555</v>
+        <v>0.00566606111265696</v>
       </c>
       <c r="BE9">
         <v>6</v>
@@ -2261,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="BM9">
-        <v>0.02546489462810621</v>
+        <v>0.03495191231952391</v>
       </c>
       <c r="BN9">
         <v>7</v>
@@ -2285,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2293,13 +2200,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.002999916325047145</v>
+        <v>0.00259759119458564</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2311,13 +2218,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.003458606016713289</v>
+        <v>0.00347846960988164</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -2335,43 +2242,43 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003544056051314881</v>
+        <v>0.003075486951556389</v>
       </c>
       <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC10">
+        <v>0.03165264295256626</v>
+      </c>
+      <c r="AD10">
         <v>6</v>
       </c>
-      <c r="V10">
+      <c r="AE10">
         <v>6</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC10">
-        <v>0.02838781104080627</v>
-      </c>
-      <c r="AD10">
-        <v>7</v>
-      </c>
-      <c r="AE10">
-        <v>7</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2389,13 +2296,13 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.004339337189706189</v>
+        <v>0.003773949980975176</v>
       </c>
       <c r="AM10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2407,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="AU10">
-        <v>0.02441000995280999</v>
+        <v>0.03241848208572196</v>
       </c>
       <c r="AV10">
         <v>6</v>
@@ -2437,13 +2344,13 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.00561178701113228</v>
+        <v>0.004891490828045236</v>
       </c>
       <c r="BE10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BF10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -2455,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="BM10">
-        <v>0.02380519169885476</v>
+        <v>0.03278063993616221</v>
       </c>
       <c r="BN10">
         <v>6</v>
@@ -2487,7 +2394,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.00257319590614854</v>
+        <v>0.00258217630277249</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2505,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.003025958429805205</v>
+        <v>0.003052331785291332</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -2535,7 +2442,7 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.003046497846212089</v>
+        <v>0.003002266215443922</v>
       </c>
       <c r="U11">
         <v>5</v>
@@ -2553,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AC11">
-        <v>0.02547241852132525</v>
+        <v>0.03165264295256626</v>
       </c>
       <c r="AD11">
         <v>6</v>
@@ -2583,7 +2490,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003738246835535739</v>
+        <v>0.003616243780117555</v>
       </c>
       <c r="AM11">
         <v>5</v>
@@ -2601,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AU11">
-        <v>0.02441000995280999</v>
+        <v>0.03241848208572196</v>
       </c>
       <c r="AV11">
         <v>6</v>
@@ -2631,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004845045218453578</v>
+        <v>0.004598607883595368</v>
       </c>
       <c r="BE11">
         <v>5</v>
@@ -2649,13 +2556,13 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="BM11">
-        <v>0.02380519169885476</v>
+        <v>0.03278063993616221</v>
       </c>
       <c r="BN11">
         <v>6</v>
@@ -2681,7 +2588,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002143900808698552</v>
+        <v>0.002143677948297911</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2699,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.003025958429805205</v>
+        <v>0.003052331785291332</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -2729,7 +2636,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002536709917990229</v>
+        <v>0.002463244235477244</v>
       </c>
       <c r="U12">
         <v>4</v>
@@ -2747,19 +2654,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="AC12">
-        <v>0.02547241852132525</v>
+        <v>0.02467154194144427</v>
       </c>
       <c r="AD12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2771,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003110815539262681</v>
+        <v>0.002930302655200884</v>
       </c>
       <c r="AM12">
         <v>4</v>
@@ -2795,19 +2702,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="AU12">
-        <v>0.02009143969560085</v>
+        <v>0.02155998866991952</v>
       </c>
       <c r="AV12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2825,7 +2732,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004029384533298603</v>
+        <v>0.003677596126758709</v>
       </c>
       <c r="BE12">
         <v>4</v>
@@ -2843,19 +2750,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="BM12">
-        <v>0.02038701719670474</v>
+        <v>0.02409333227232763</v>
       </c>
       <c r="BN12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2875,13 +2782,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002143900808698552</v>
+        <v>0.001730871080178585</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2896,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.002158088577437654</v>
+        <v>0.001740519379258582</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2923,13 +2830,13 @@
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002536709917990229</v>
+        <v>0.002046256815698011</v>
       </c>
       <c r="U13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2944,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="AC13">
-        <v>0.0195722356739306</v>
+        <v>0.01859845362176175</v>
       </c>
       <c r="AD13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2971,13 +2878,13 @@
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003110815539262681</v>
+        <v>0.002507205198380249</v>
       </c>
       <c r="AM13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2992,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AU13">
-        <v>0.0190395373840047</v>
+        <v>0.02141285517958338</v>
       </c>
       <c r="AV13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AW13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AX13">
         <v>1</v>
@@ -3013,19 +2920,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>277</v>
+        <v>2</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004029384533298603</v>
+        <v>0.003244722610671831</v>
       </c>
       <c r="BE13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -3040,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="BM13">
-        <v>0.0187273142674533</v>
+        <v>0.0239261406943469</v>
       </c>
       <c r="BN13">
         <v>3</v>
@@ -3061,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -3069,13 +2976,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002143900808698552</v>
+        <v>0.001730871080178585</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3090,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.00172544099052957</v>
+        <v>0.001737950230623057</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -3111,19 +3018,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002536709917990229</v>
+        <v>0.002046256815698011</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3138,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="AC14">
-        <v>0.01665684315444958</v>
+        <v>0.01849678587448889</v>
       </c>
       <c r="AD14">
         <v>3</v>
@@ -3159,19 +3066,19 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003110815539262681</v>
+        <v>0.002507205198380249</v>
       </c>
       <c r="AM14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3186,16 +3093,16 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="AU14">
-        <v>0.01797621147414769</v>
+        <v>0.01813666885176689</v>
       </c>
       <c r="AV14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14">
         <v>1</v>
@@ -3207,19 +3114,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.004029384533298603</v>
+        <v>0.003244722610671831</v>
       </c>
       <c r="BE14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3234,16 +3141,16 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="BM14">
-        <v>0.0187273142674533</v>
+        <v>0.02142048515502375</v>
       </c>
       <c r="BN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP14">
         <v>1</v>
@@ -3255,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3263,13 +3170,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00212330338028749</v>
+        <v>0.00172830193154306</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3281,19 +3188,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.00172544099052957</v>
+        <v>0.001306674108761699</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3305,19 +3212,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002438872133037681</v>
+        <v>0.002034053359679267</v>
       </c>
       <c r="U15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3329,19 +3236,19 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AC15">
-        <v>0.01665684315444958</v>
+        <v>0.01438261417452407</v>
       </c>
       <c r="AD15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -3353,19 +3260,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.002900088002441807</v>
+        <v>0.002480920831570646</v>
       </c>
       <c r="AM15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3377,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="AU15">
-        <v>0.01797621147414769</v>
+        <v>0.01784240187109461</v>
       </c>
       <c r="AV15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX15">
         <v>1</v>
@@ -3401,19 +3308,19 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.003638033393488408</v>
+        <v>0.003195908786596854</v>
       </c>
       <c r="BE15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3425,19 +3332,19 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="BM15">
-        <v>0.01852977698015906</v>
+        <v>0.02108610199906229</v>
       </c>
       <c r="BN15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP15">
         <v>1</v>
@@ -3449,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3457,7 +3364,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.001714605711248566</v>
+        <v>0.00172830193154306</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -3475,19 +3382,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.001720291633426805</v>
+        <v>0.001301535811490649</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3499,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.00202692198976837</v>
+        <v>0.002034053359679267</v>
       </c>
       <c r="U16">
         <v>3</v>
@@ -3523,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="AC16">
-        <v>0.01651804753758436</v>
+        <v>0.01417927867997834</v>
       </c>
       <c r="AD16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -3547,13 +3454,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.002483384242989623</v>
+        <v>0.002480920831570646</v>
       </c>
       <c r="AM16">
         <v>3</v>
@@ -3571,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AU16">
-        <v>0.01779998384554203</v>
+        <v>0.01754813489042233</v>
       </c>
       <c r="AV16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX16">
         <v>1</v>
@@ -3595,13 +3502,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.003213723848143628</v>
+        <v>0.003195908786596854</v>
       </c>
       <c r="BE16">
         <v>3</v>
@@ -3619,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="BM16">
-        <v>0.01716637998184897</v>
+        <v>0.02075171884310082</v>
       </c>
       <c r="BN16">
         <v>2</v>
@@ -3643,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3651,13 +3558,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.001714605711248566</v>
+        <v>0.001297511022975058</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3672,16 +3579,16 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.001684246133707445</v>
+        <v>0.001296397514219598</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3693,19 +3600,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.00202692198976837</v>
+        <v>0.001531641747768822</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3720,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AC17">
-        <v>0.01554647821952778</v>
+        <v>0.01397594318543261</v>
       </c>
       <c r="AD17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -3741,19 +3648,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.002483384242989623</v>
+        <v>0.001873832807082786</v>
       </c>
       <c r="AM17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3768,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AU17">
-        <v>0.01656639044530242</v>
+        <v>0.01754813489042233</v>
       </c>
       <c r="AV17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX17">
         <v>1</v>
@@ -3789,19 +3696,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.003213723848143628</v>
+        <v>0.002421338501985129</v>
       </c>
       <c r="BE17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3816,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="BM17">
-        <v>0.01716637998184897</v>
+        <v>0.02075171884310082</v>
       </c>
       <c r="BN17">
         <v>2</v>
@@ -3837,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3845,7 +3752,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.001285310613798579</v>
+        <v>0.001297511022975058</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3866,10 +3773,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.001295368082172869</v>
+        <v>0.001296397514219598</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -3887,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.00151713406154651</v>
+        <v>0.001531641747768822</v>
       </c>
       <c r="U18">
         <v>2</v>
@@ -3914,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="AC18">
-        <v>0.01381084844340118</v>
+        <v>0.01397594318543261</v>
       </c>
       <c r="AD18">
         <v>2</v>
@@ -3935,13 +3842,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.001855952946716565</v>
+        <v>0.001873832807082786</v>
       </c>
       <c r="AM18">
         <v>2</v>
@@ -3962,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="AU18">
-        <v>0.01594909706699736</v>
+        <v>0.01740100140008618</v>
       </c>
       <c r="AV18">
         <v>2</v>
@@ -3983,13 +3890,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.002398063162988652</v>
+        <v>0.002421338501985129</v>
       </c>
       <c r="BE18">
         <v>2</v>
@@ -4010,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="BM18">
-        <v>0.01716637998184897</v>
+        <v>0.0205845272651201</v>
       </c>
       <c r="BN18">
         <v>2</v>
@@ -4031,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -4039,7 +3946,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.001285310613798579</v>
+        <v>0.001294941874339532</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4057,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.001295368082172869</v>
+        <v>0.001293828365584074</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -4081,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.00151713406154651</v>
+        <v>0.001519438291750078</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -4105,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="AC19">
-        <v>0.01381084844340118</v>
+        <v>0.01387427543815975</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -4129,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.001855952946716565</v>
+        <v>0.001847548440273183</v>
       </c>
       <c r="AM19">
         <v>2</v>
@@ -4153,13 +4060,13 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AU19">
-        <v>0.01594909706699736</v>
+        <v>0.01681246743874161</v>
       </c>
       <c r="AV19">
         <v>2</v>
@@ -4177,13 +4084,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.002398063162988652</v>
+        <v>0.002372524677910151</v>
       </c>
       <c r="BE19">
         <v>2</v>
@@ -4201,13 +4108,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="BM19">
-        <v>0.01716637998184897</v>
+        <v>0.01991576095319717</v>
       </c>
       <c r="BN19">
         <v>2</v>
@@ -4225,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4233,7 +4140,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001285310613798579</v>
+        <v>0.001294941874339532</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -4251,13 +4158,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.001295368082172869</v>
+        <v>0.001283551771041973</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -4275,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T20">
-        <v>0.00151713406154651</v>
+        <v>0.001519438291750078</v>
       </c>
       <c r="U20">
         <v>2</v>
@@ -4299,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AC20">
-        <v>0.01381084844340118</v>
+        <v>0.01346760444906829</v>
       </c>
       <c r="AD20">
         <v>2</v>
@@ -4323,13 +4230,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL20">
-        <v>0.001855952946716565</v>
+        <v>0.001847548440273183</v>
       </c>
       <c r="AM20">
         <v>2</v>
@@ -4347,13 +4254,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="AU20">
-        <v>0.01594909706699736</v>
+        <v>0.01548826602571633</v>
       </c>
       <c r="AV20">
         <v>2</v>
@@ -4371,13 +4278,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD20">
-        <v>0.002398063162988652</v>
+        <v>0.002372524677910151</v>
       </c>
       <c r="BE20">
         <v>2</v>
@@ -4395,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="BM20">
-        <v>0.01716637998184897</v>
+        <v>0.01858044645973913</v>
       </c>
       <c r="BN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP20">
         <v>1</v>
@@ -4427,7 +4334,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001285310613798579</v>
+        <v>0.001287234428432957</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -4445,13 +4352,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.001295368082172869</v>
+        <v>0.001260429433322246</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4469,13 +4376,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T21">
-        <v>0.00151713406154651</v>
+        <v>0.001482827923693844</v>
       </c>
       <c r="U21">
         <v>2</v>
@@ -4493,13 +4400,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="AC21">
-        <v>0.01381084844340118</v>
+        <v>0.01255259472361252</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -4517,13 +4424,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL21">
-        <v>0.001855952946716565</v>
+        <v>0.001768695339844372</v>
       </c>
       <c r="AM21">
         <v>2</v>
@@ -4541,19 +4448,19 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AU21">
-        <v>0.01594909706699736</v>
+        <v>0.01456621554327812</v>
       </c>
       <c r="AV21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX21">
         <v>1</v>
@@ -4571,7 +4478,7 @@
         <v>26</v>
       </c>
       <c r="BD21">
-        <v>0.002398063162988652</v>
+        <v>0.002226083205685217</v>
       </c>
       <c r="BE21">
         <v>2</v>
@@ -4589,19 +4496,19 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="BM21">
-        <v>0.01714701596909941</v>
+        <v>0.01858044645973913</v>
       </c>
       <c r="BN21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP21">
         <v>1</v>
@@ -4613,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4621,7 +4528,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001285310613798579</v>
+        <v>0.001264112090713231</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4639,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.001295368082172869</v>
+        <v>0.00124244539287357</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -4663,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T22">
-        <v>0.00151713406154651</v>
+        <v>0.001372996819525144</v>
       </c>
       <c r="U22">
         <v>2</v>
@@ -4687,13 +4594,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AC22">
-        <v>0.01381084844340118</v>
+        <v>0.01184092049270247</v>
       </c>
       <c r="AD22">
         <v>2</v>
@@ -4711,13 +4618,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL22">
-        <v>0.001855952946716565</v>
+        <v>0.00153213603855794</v>
       </c>
       <c r="AM22">
         <v>2</v>
@@ -4735,19 +4642,19 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="AU22">
-        <v>0.01594909706699736</v>
+        <v>0.01456621554327812</v>
       </c>
       <c r="AV22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX22">
         <v>1</v>
@@ -4765,7 +4672,7 @@
         <v>27</v>
       </c>
       <c r="BD22">
-        <v>0.002398063162988652</v>
+        <v>0.001786758789010415</v>
       </c>
       <c r="BE22">
         <v>2</v>
@@ -4783,19 +4690,19 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="BM22">
-        <v>0.0167713054072605</v>
+        <v>0.01858044645973913</v>
       </c>
       <c r="BN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP22">
         <v>1</v>
@@ -4807,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4815,13 +4722,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001285310613798579</v>
+        <v>0.00086415096577153</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4836,16 +4743,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.001285069367967338</v>
+        <v>0.0008702596896292911</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4857,19 +4764,19 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23">
-        <v>0.00151713406154651</v>
+        <v>0.001017026679839633</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -4884,16 +4791,16 @@
         <v>0</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AC23">
-        <v>0.01353325720967073</v>
+        <v>0.01006510698001352</v>
       </c>
       <c r="AD23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -4905,19 +4812,19 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL23">
-        <v>0.001855952946716565</v>
+        <v>0.001240460415785323</v>
       </c>
       <c r="AM23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO23">
         <v>0</v>
@@ -4932,16 +4839,16 @@
         <v>0</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="AU23">
-        <v>0.01559664180978605</v>
+        <v>0.01456621554327812</v>
       </c>
       <c r="AV23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX23">
         <v>1</v>
@@ -4953,19 +4860,19 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD23">
-        <v>0.002398063162988652</v>
+        <v>0.001597954393298427</v>
       </c>
       <c r="BE23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG23">
         <v>0</v>
@@ -4980,16 +4887,16 @@
         <v>0</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="BM23">
-        <v>0.01627746218902491</v>
+        <v>0.0184132548817584</v>
       </c>
       <c r="BN23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP23">
         <v>1</v>
@@ -5001,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -5009,13 +4916,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.001282735935247196</v>
+        <v>0.00086415096577153</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5027,19 +4934,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.001272195975210424</v>
+        <v>0.0008702596896292911</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -5051,19 +4958,19 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T24">
-        <v>0.001504904338427442</v>
+        <v>0.001017026679839633</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -5075,19 +4982,19 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AC24">
-        <v>0.01318626816750766</v>
+        <v>0.01006510698001352</v>
       </c>
       <c r="AD24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -5099,19 +5006,19 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL24">
-        <v>0.001829612004613955</v>
+        <v>0.001240460415785323</v>
       </c>
       <c r="AM24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -5123,13 +5030,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="AU24">
-        <v>0.0151560727382719</v>
+        <v>0.01445833159336333</v>
       </c>
       <c r="AV24">
         <v>2</v>
@@ -5147,19 +5054,19 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD24">
-        <v>0.002349144270512378</v>
+        <v>0.001597954393298427</v>
       </c>
       <c r="BE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG24">
         <v>0</v>
@@ -5171,13 +5078,13 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="BM24">
-        <v>0.01550667705259752</v>
+        <v>0.0184132548817584</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5195,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5203,13 +5110,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.00127758657814443</v>
+        <v>0.0008615818171360048</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5221,19 +5128,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.001076520405305326</v>
+        <v>0.0008702596896292911</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -5245,19 +5152,19 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T25">
-        <v>0.001480444892189304</v>
+        <v>0.001004823223820889</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -5269,13 +5176,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AC25">
-        <v>0.01089545592392016</v>
+        <v>0.01006510698001352</v>
       </c>
       <c r="AD25">
         <v>1</v>
@@ -5299,13 +5206,13 @@
         <v>30</v>
       </c>
       <c r="AL25">
-        <v>0.001776930120408737</v>
+        <v>0.00121417604897572</v>
       </c>
       <c r="AM25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -5317,13 +5224,13 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AU25">
-        <v>0.0138338688455442</v>
+        <v>0.01441908205294198</v>
       </c>
       <c r="AV25">
         <v>1</v>
@@ -5341,19 +5248,19 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD25">
-        <v>0.002251306485559829</v>
+        <v>0.001549140569223449</v>
       </c>
       <c r="BE25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -5365,19 +5272,19 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="BM25">
-        <v>0.01550667705259752</v>
+        <v>0.0184110367513706</v>
       </c>
       <c r="BN25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP25">
         <v>1</v>
@@ -5389,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5397,13 +5304,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001275011899593047</v>
+        <v>0.0008615818171360048</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5415,13 +5322,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.0008627204952647851</v>
+        <v>0.000867690540993766</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5439,19 +5346,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T26">
-        <v>0.001468215169070236</v>
+        <v>0.001004823223820889</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -5463,13 +5370,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="AC26">
-        <v>0.01089545592392016</v>
+        <v>0.009963439232740654</v>
       </c>
       <c r="AD26">
         <v>1</v>
@@ -5487,19 +5394,19 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL26">
-        <v>0.001750589178306128</v>
+        <v>0.00121417604897572</v>
       </c>
       <c r="AM26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5511,13 +5418,13 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AU26">
-        <v>0.0138338688455442</v>
+        <v>0.01441908205294198</v>
       </c>
       <c r="AV26">
         <v>1</v>
@@ -5535,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD26">
-        <v>0.002202387593083555</v>
+        <v>0.001549140569223449</v>
       </c>
       <c r="BE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <v>0</v>
@@ -5559,13 +5466,13 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="BM26">
-        <v>0.01550667705259752</v>
+        <v>0.01824606330377767</v>
       </c>
       <c r="BN26">
         <v>1</v>
@@ -5583,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5591,13 +5498,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.001251839792630601</v>
+        <v>0.0008590126685004797</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5609,13 +5516,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K27">
-        <v>0.0008627204952647851</v>
+        <v>0.000867690540993766</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5633,19 +5540,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T27">
-        <v>0.001358147660998619</v>
+        <v>0.0009926197678021445</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -5657,13 +5564,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="AC27">
-        <v>0.01089545592392016</v>
+        <v>0.009963439232740654</v>
       </c>
       <c r="AD27">
         <v>1</v>
@@ -5681,19 +5588,19 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL27">
-        <v>0.001513520699382644</v>
+        <v>0.001187891682166116</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5705,13 +5612,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AU27">
-        <v>0.0138338688455442</v>
+        <v>0.01427194856260584</v>
       </c>
       <c r="AV27">
         <v>1</v>
@@ -5729,19 +5636,19 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD27">
-        <v>0.001762117560797086</v>
+        <v>0.001500326745148471</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27">
         <v>0</v>
@@ -5753,13 +5660,13 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="BM27">
-        <v>0.01550667705259752</v>
+        <v>0.01824606330377767</v>
       </c>
       <c r="BN27">
         <v>1</v>
@@ -5777,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5785,7 +5692,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0008560155163485914</v>
+        <v>0.0008590126685004797</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5803,13 +5710,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.0008627204952647851</v>
+        <v>0.0008651213923582409</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5827,13 +5734,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T28">
-        <v>0.001007346133324651</v>
+        <v>0.0009926197678021445</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -5851,13 +5758,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="AC28">
-        <v>0.01089545592392016</v>
+        <v>0.009861771485467791</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -5875,13 +5782,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL28">
-        <v>0.001228521650443507</v>
+        <v>0.001187891682166116</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -5899,13 +5806,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AU28">
-        <v>0.0138338688455442</v>
+        <v>0.01427194856260584</v>
       </c>
       <c r="AV28">
         <v>1</v>
@@ -5923,13 +5830,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD28">
-        <v>0.001582402477833677</v>
+        <v>0.001500326745148471</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5947,13 +5854,13 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BM28">
-        <v>0.01550667705259752</v>
+        <v>0.01807887172579694</v>
       </c>
       <c r="BN28">
         <v>1</v>
@@ -5971,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5979,7 +5886,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0008560155163485914</v>
+        <v>0.0008564435198649545</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5997,13 +5904,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>0.0008627204952647851</v>
+        <v>0.0008651213923582409</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -6021,13 +5928,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T29">
-        <v>0.001007346133324651</v>
+        <v>0.0009804163117833999</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -6045,13 +5952,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="AC29">
-        <v>0.01089545592392016</v>
+        <v>0.009861771485467791</v>
       </c>
       <c r="AD29">
         <v>1</v>
@@ -6069,13 +5976,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL29">
-        <v>0.001228521650443507</v>
+        <v>0.001161607315356512</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -6093,13 +6000,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AU29">
-        <v>0.0138338688455442</v>
+        <v>0.0141248150722697</v>
       </c>
       <c r="AV29">
         <v>1</v>
@@ -6117,13 +6024,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD29">
-        <v>0.001582402477833677</v>
+        <v>0.001451512921073493</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -6141,13 +6048,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="BM29">
-        <v>0.01550667705259752</v>
+        <v>0.01791168014781621</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6165,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6173,7 +6080,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0008560155163485914</v>
+        <v>0.0008564435198649545</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -6191,13 +6098,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>0.0008627204952647851</v>
+        <v>0.0008625522437227157</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6215,13 +6122,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T30">
-        <v>0.001007346133324651</v>
+        <v>0.0009804163117833999</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6239,13 +6146,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AC30">
-        <v>0.01089545592392016</v>
+        <v>0.009760103738194926</v>
       </c>
       <c r="AD30">
         <v>1</v>
@@ -6263,13 +6170,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL30">
-        <v>0.001228521650443507</v>
+        <v>0.001161607315356512</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -6287,13 +6194,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="AU30">
-        <v>0.0138338688455442</v>
+        <v>0.01397768158193355</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6311,13 +6218,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD30">
-        <v>0.001582402477833677</v>
+        <v>0.001451512921073493</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -6335,13 +6242,13 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="BM30">
-        <v>0.01550667705259752</v>
+        <v>0.01774448856983548</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6359,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6367,7 +6274,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0008560155163485914</v>
+        <v>0.0008538743712294294</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -6385,13 +6292,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K31">
-        <v>0.0008627204952647851</v>
+        <v>0.0008599830950871905</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6409,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T31">
-        <v>0.001007346133324651</v>
+        <v>0.0009682128557646553</v>
       </c>
       <c r="U31">
         <v>1</v>
@@ -6433,13 +6340,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AC31">
-        <v>0.01089545592392016</v>
+        <v>0.009658435990922061</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6457,13 +6364,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL31">
-        <v>0.001228521650443507</v>
+        <v>0.001135322948546909</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -6481,13 +6388,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="AU31">
-        <v>0.0138338688455442</v>
+        <v>0.01383054809159741</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6505,13 +6412,13 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD31">
-        <v>0.001582402477833677</v>
+        <v>0.001402699096998515</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -6529,19 +6436,19 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="BM31">
-        <v>0.01550667705259752</v>
+        <v>0.01724069570550548</v>
       </c>
       <c r="BN31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP31">
         <v>1</v>
@@ -6553,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6561,7 +6468,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0008560155163485914</v>
+        <v>0.0008538743712294294</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -6579,13 +6486,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K32">
-        <v>0.0008627204952647851</v>
+        <v>0.0008574139464516654</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6603,13 +6510,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T32">
-        <v>0.001007346133324651</v>
+        <v>0.0009682128557646553</v>
       </c>
       <c r="U32">
         <v>1</v>
@@ -6627,13 +6534,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="AC32">
-        <v>0.01089545592392016</v>
+        <v>0.009556768243649198</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6651,13 +6558,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL32">
-        <v>0.001228521650443507</v>
+        <v>0.001135322948546909</v>
       </c>
       <c r="AM32">
         <v>1</v>
@@ -6675,13 +6582,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="AU32">
-        <v>0.0138338688455442</v>
+        <v>0.01280061365924441</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6699,13 +6606,13 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BC32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BD32">
-        <v>0.001582402477833677</v>
+        <v>0.001402699096998515</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -6723,13 +6630,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="BM32">
-        <v>0.01550667705259752</v>
+        <v>0.01657414752397036</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6747,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6755,7 +6662,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0008560155163485914</v>
+        <v>0.0008461669253228539</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6773,13 +6680,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="K33">
-        <v>0.0008627204952647851</v>
+        <v>0.0008394299060029893</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6797,13 +6704,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T33">
-        <v>0.001007346133324651</v>
+        <v>0.0009316024877084218</v>
       </c>
       <c r="U33">
         <v>1</v>
@@ -6821,13 +6728,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="AC33">
-        <v>0.01089545592392016</v>
+        <v>0.008845094012739151</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6845,13 +6752,13 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL33">
-        <v>0.001228521650443507</v>
+        <v>0.001056469848118098</v>
       </c>
       <c r="AM33">
         <v>1</v>
@@ -6869,13 +6776,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="AU33">
-        <v>0.0138338688455442</v>
+        <v>0.01221207969789984</v>
       </c>
       <c r="AV33">
         <v>1</v>
@@ -6893,13 +6800,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BC33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="BD33">
-        <v>0.001582402477833677</v>
+        <v>0.001256257624773581</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6917,13 +6824,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="BM33">
-        <v>0.01550667705259752</v>
+        <v>0.01590538121204745</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -6941,39 +6848,15 @@
         <v>0</v>
       </c>
       <c r="BS33">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:71">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.0008560155163485914</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K34">
-        <v>0.0008627204952647851</v>
+        <v>0.0008291533114608886</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -6991,37 +6874,13 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T34">
-        <v>0.001007346133324651</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="AC34">
-        <v>0.01089545592392016</v>
+        <v>0.008438423023647695</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7039,43 +6898,19 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL34">
-        <v>0.001228521650443507</v>
-      </c>
-      <c r="AM34">
-        <v>1</v>
-      </c>
-      <c r="AN34">
-        <v>1</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>1</v>
-      </c>
-      <c r="AQ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="AU34">
-        <v>0.0138338688455442</v>
+        <v>0.008926237843709727</v>
       </c>
       <c r="AV34">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AW34">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AX34">
         <v>1</v>
@@ -7087,37 +6922,13 @@
         <v>0</v>
       </c>
       <c r="BA34">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD34">
-        <v>0.001582402477833677</v>
-      </c>
-      <c r="BE34">
-        <v>1</v>
-      </c>
-      <c r="BF34">
-        <v>1</v>
-      </c>
-      <c r="BG34">
-        <v>0</v>
-      </c>
-      <c r="BH34">
-        <v>1</v>
-      </c>
-      <c r="BI34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ34">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="BM34">
-        <v>0.01550667705259752</v>
+        <v>0.002028480239646809</v>
       </c>
       <c r="BN34">
         <v>1</v>
@@ -7135,39 +6946,15 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:71">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.0008534408377972087</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="K35">
-        <v>0.0008627204952647851</v>
+        <v>0.0006159139747123002</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7185,37 +6972,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T35">
-        <v>0.0009951164102055823</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="AC35">
-        <v>0.01089545592392016</v>
+        <v>0</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7233,37 +6996,13 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL35">
-        <v>0.001202180708340898</v>
-      </c>
-      <c r="AM35">
-        <v>1</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>1</v>
-      </c>
-      <c r="AQ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR35">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="AU35">
-        <v>0.0138338688455442</v>
+        <v>0</v>
       </c>
       <c r="AV35">
         <v>1</v>
@@ -7281,43 +7020,19 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>0</v>
-      </c>
-      <c r="BC35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD35">
-        <v>0.001533483585357403</v>
-      </c>
-      <c r="BE35">
-        <v>1</v>
-      </c>
-      <c r="BF35">
-        <v>1</v>
-      </c>
-      <c r="BG35">
-        <v>0</v>
-      </c>
-      <c r="BH35">
-        <v>1</v>
-      </c>
-      <c r="BI35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ35">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="BM35">
-        <v>0.01550667705259752</v>
+        <v>0</v>
       </c>
       <c r="BN35">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BO35">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BP35">
         <v>1</v>
@@ -7329,2827 +7044,7 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:71">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.0008534408377972087</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K36">
-        <v>0.0008627204952647851</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T36">
-        <v>0.0009951164102055823</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC36">
-        <v>0.01089545592392016</v>
-      </c>
-      <c r="AD36">
-        <v>1</v>
-      </c>
-      <c r="AE36">
-        <v>1</v>
-      </c>
-      <c r="AF36">
-        <v>1</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL36">
-        <v>0.001202180708340898</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>1</v>
-      </c>
-      <c r="AQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>1</v>
-      </c>
-      <c r="AT36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU36">
-        <v>0.0138338688455442</v>
-      </c>
-      <c r="AV36">
-        <v>1</v>
-      </c>
-      <c r="AW36">
-        <v>1</v>
-      </c>
-      <c r="AX36">
-        <v>1</v>
-      </c>
-      <c r="AY36">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>0</v>
-      </c>
-      <c r="BC36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD36">
-        <v>0.001533483585357403</v>
-      </c>
-      <c r="BE36">
-        <v>1</v>
-      </c>
-      <c r="BF36">
-        <v>1</v>
-      </c>
-      <c r="BG36">
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <v>1</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ36">
-        <v>1</v>
-      </c>
-      <c r="BL36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BM36">
-        <v>0.01550667705259752</v>
-      </c>
-      <c r="BN36">
-        <v>1</v>
-      </c>
-      <c r="BO36">
-        <v>1</v>
-      </c>
-      <c r="BP36">
-        <v>1</v>
-      </c>
-      <c r="BQ36">
-        <v>0</v>
-      </c>
-      <c r="BR36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:71">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.0008534408377972087</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K37">
-        <v>0.0008627204952647851</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T37">
-        <v>0.0009951164102055823</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC37">
-        <v>0.01089545592392016</v>
-      </c>
-      <c r="AD37">
-        <v>1</v>
-      </c>
-      <c r="AE37">
-        <v>1</v>
-      </c>
-      <c r="AF37">
-        <v>1</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL37">
-        <v>0.001202180708340898</v>
-      </c>
-      <c r="AM37">
-        <v>1</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>1</v>
-      </c>
-      <c r="AQ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR37">
-        <v>1</v>
-      </c>
-      <c r="AT37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU37">
-        <v>0.0138338688455442</v>
-      </c>
-      <c r="AV37">
-        <v>1</v>
-      </c>
-      <c r="AW37">
-        <v>1</v>
-      </c>
-      <c r="AX37">
-        <v>1</v>
-      </c>
-      <c r="AY37">
-        <v>0</v>
-      </c>
-      <c r="AZ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA37">
-        <v>0</v>
-      </c>
-      <c r="BC37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD37">
-        <v>0.001533483585357403</v>
-      </c>
-      <c r="BE37">
-        <v>1</v>
-      </c>
-      <c r="BF37">
-        <v>1</v>
-      </c>
-      <c r="BG37">
-        <v>0</v>
-      </c>
-      <c r="BH37">
-        <v>1</v>
-      </c>
-      <c r="BI37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ37">
-        <v>1</v>
-      </c>
-      <c r="BL37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM37">
-        <v>0.0154079084089504</v>
-      </c>
-      <c r="BN37">
-        <v>1</v>
-      </c>
-      <c r="BO37">
-        <v>1</v>
-      </c>
-      <c r="BP37">
-        <v>1</v>
-      </c>
-      <c r="BQ37">
-        <v>0</v>
-      </c>
-      <c r="BR37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:71">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.0008534408377972087</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K38">
-        <v>0.0008627204952647851</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T38">
-        <v>0.0009951164102055823</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC38">
-        <v>0.01082605811548754</v>
-      </c>
-      <c r="AD38">
-        <v>1</v>
-      </c>
-      <c r="AE38">
-        <v>1</v>
-      </c>
-      <c r="AF38">
-        <v>1</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI38">
-        <v>1</v>
-      </c>
-      <c r="AK38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL38">
-        <v>0.001202180708340898</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-      <c r="AQ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR38">
-        <v>1</v>
-      </c>
-      <c r="AT38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU38">
-        <v>0.01374575503124137</v>
-      </c>
-      <c r="AV38">
-        <v>1</v>
-      </c>
-      <c r="AW38">
-        <v>1</v>
-      </c>
-      <c r="AX38">
-        <v>1</v>
-      </c>
-      <c r="AY38">
-        <v>0</v>
-      </c>
-      <c r="AZ38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA38">
-        <v>1</v>
-      </c>
-      <c r="BC38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD38">
-        <v>0.001533483585357403</v>
-      </c>
-      <c r="BE38">
-        <v>1</v>
-      </c>
-      <c r="BF38">
-        <v>1</v>
-      </c>
-      <c r="BG38">
-        <v>0</v>
-      </c>
-      <c r="BH38">
-        <v>1</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ38">
-        <v>1</v>
-      </c>
-      <c r="BL38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BM38">
-        <v>0.0154079084089504</v>
-      </c>
-      <c r="BN38">
-        <v>1</v>
-      </c>
-      <c r="BO38">
-        <v>1</v>
-      </c>
-      <c r="BP38">
-        <v>1</v>
-      </c>
-      <c r="BQ38">
-        <v>0</v>
-      </c>
-      <c r="BR38" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:71">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.0008534408377972087</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K39">
-        <v>0.0008601458167134024</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T39">
-        <v>0.0009951164102055823</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC39">
-        <v>0.01082605811548754</v>
-      </c>
-      <c r="AD39">
-        <v>1</v>
-      </c>
-      <c r="AE39">
-        <v>1</v>
-      </c>
-      <c r="AF39">
-        <v>1</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>1</v>
-      </c>
-      <c r="AK39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL39">
-        <v>0.001202180708340898</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AQ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>1</v>
-      </c>
-      <c r="AT39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU39">
-        <v>0.01374575503124137</v>
-      </c>
-      <c r="AV39">
-        <v>1</v>
-      </c>
-      <c r="AW39">
-        <v>1</v>
-      </c>
-      <c r="AX39">
-        <v>1</v>
-      </c>
-      <c r="AY39">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA39">
-        <v>1</v>
-      </c>
-      <c r="BC39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD39">
-        <v>0.001533483585357403</v>
-      </c>
-      <c r="BE39">
-        <v>1</v>
-      </c>
-      <c r="BF39">
-        <v>1</v>
-      </c>
-      <c r="BG39">
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <v>1</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <v>1</v>
-      </c>
-      <c r="BL39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM39">
-        <v>0.0154079084089504</v>
-      </c>
-      <c r="BN39">
-        <v>1</v>
-      </c>
-      <c r="BO39">
-        <v>1</v>
-      </c>
-      <c r="BP39">
-        <v>1</v>
-      </c>
-      <c r="BQ39">
-        <v>0</v>
-      </c>
-      <c r="BR39" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:71">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.0008534408377972087</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K40">
-        <v>0.0008601458167134024</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T40">
-        <v>0.0009951164102055823</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC40">
-        <v>0.01082605811548754</v>
-      </c>
-      <c r="AD40">
-        <v>1</v>
-      </c>
-      <c r="AE40">
-        <v>1</v>
-      </c>
-      <c r="AF40">
-        <v>1</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>1</v>
-      </c>
-      <c r="AK40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL40">
-        <v>0.001202180708340898</v>
-      </c>
-      <c r="AM40">
-        <v>1</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>1</v>
-      </c>
-      <c r="AT40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU40">
-        <v>0.01374575503124137</v>
-      </c>
-      <c r="AV40">
-        <v>1</v>
-      </c>
-      <c r="AW40">
-        <v>1</v>
-      </c>
-      <c r="AX40">
-        <v>1</v>
-      </c>
-      <c r="AY40">
-        <v>0</v>
-      </c>
-      <c r="AZ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <v>1</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD40">
-        <v>0.001533483585357403</v>
-      </c>
-      <c r="BE40">
-        <v>1</v>
-      </c>
-      <c r="BF40">
-        <v>1</v>
-      </c>
-      <c r="BG40">
-        <v>0</v>
-      </c>
-      <c r="BH40">
-        <v>1</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ40">
-        <v>1</v>
-      </c>
-      <c r="BL40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM40">
-        <v>0.01530913976530329</v>
-      </c>
-      <c r="BN40">
-        <v>1</v>
-      </c>
-      <c r="BO40">
-        <v>1</v>
-      </c>
-      <c r="BP40">
-        <v>1</v>
-      </c>
-      <c r="BQ40">
-        <v>0</v>
-      </c>
-      <c r="BR40" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:71">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.0008508661592458258</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K41">
-        <v>0.0008601458167134024</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41">
-        <v>0.0009828866870865136</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>2</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC41">
-        <v>0.01075666030705493</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AE41">
-        <v>1</v>
-      </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>2</v>
-      </c>
-      <c r="AK41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL41">
-        <v>0.001175839766238288</v>
-      </c>
-      <c r="AM41">
-        <v>1</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>1</v>
-      </c>
-      <c r="AQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>2</v>
-      </c>
-      <c r="AT41" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU41">
-        <v>0.01365764121693855</v>
-      </c>
-      <c r="AV41">
-        <v>1</v>
-      </c>
-      <c r="AW41">
-        <v>1</v>
-      </c>
-      <c r="AX41">
-        <v>1</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>2</v>
-      </c>
-      <c r="BC41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD41">
-        <v>0.001484564692881128</v>
-      </c>
-      <c r="BE41">
-        <v>1</v>
-      </c>
-      <c r="BF41">
-        <v>1</v>
-      </c>
-      <c r="BG41">
-        <v>0</v>
-      </c>
-      <c r="BH41">
-        <v>1</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ41">
-        <v>2</v>
-      </c>
-      <c r="BL41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM41">
-        <v>0.01530913976530329</v>
-      </c>
-      <c r="BN41">
-        <v>1</v>
-      </c>
-      <c r="BO41">
-        <v>1</v>
-      </c>
-      <c r="BP41">
-        <v>1</v>
-      </c>
-      <c r="BQ41">
-        <v>0</v>
-      </c>
-      <c r="BR41" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:71">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.0008508661592458258</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K42">
-        <v>0.0008575711381620195</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>2</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T42">
-        <v>0.0009828866870865136</v>
-      </c>
-      <c r="U42">
-        <v>1</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>2</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC42">
-        <v>0.01075666030705493</v>
-      </c>
-      <c r="AD42">
-        <v>1</v>
-      </c>
-      <c r="AE42">
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
-      </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>2</v>
-      </c>
-      <c r="AK42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL42">
-        <v>0.001175839766238288</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>1</v>
-      </c>
-      <c r="AQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>2</v>
-      </c>
-      <c r="AT42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU42">
-        <v>0.01365764121693855</v>
-      </c>
-      <c r="AV42">
-        <v>1</v>
-      </c>
-      <c r="AW42">
-        <v>1</v>
-      </c>
-      <c r="AX42">
-        <v>1</v>
-      </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>2</v>
-      </c>
-      <c r="BC42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BD42">
-        <v>0.001484564692881128</v>
-      </c>
-      <c r="BE42">
-        <v>1</v>
-      </c>
-      <c r="BF42">
-        <v>1</v>
-      </c>
-      <c r="BG42">
-        <v>0</v>
-      </c>
-      <c r="BH42">
-        <v>1</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ42">
-        <v>2</v>
-      </c>
-      <c r="BL42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM42">
-        <v>0.01530913976530329</v>
-      </c>
-      <c r="BN42">
-        <v>1</v>
-      </c>
-      <c r="BO42">
-        <v>1</v>
-      </c>
-      <c r="BP42">
-        <v>1</v>
-      </c>
-      <c r="BQ42">
-        <v>0</v>
-      </c>
-      <c r="BR42" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:71">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43">
-        <v>0.0008482914806944428</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K43">
-        <v>0.0008575711381620195</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>2</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T43">
-        <v>0.0009706569639674451</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>3</v>
-      </c>
-      <c r="AB43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC43">
-        <v>0.01075666030705493</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
-      </c>
-      <c r="AE43">
-        <v>1</v>
-      </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>2</v>
-      </c>
-      <c r="AK43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL43">
-        <v>0.001149498824135679</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>3</v>
-      </c>
-      <c r="AT43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU43">
-        <v>0.01365764121693855</v>
-      </c>
-      <c r="AV43">
-        <v>1</v>
-      </c>
-      <c r="AW43">
-        <v>1</v>
-      </c>
-      <c r="AX43">
-        <v>1</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>2</v>
-      </c>
-      <c r="BC43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD43">
-        <v>0.001435645800404854</v>
-      </c>
-      <c r="BE43">
-        <v>1</v>
-      </c>
-      <c r="BF43">
-        <v>1</v>
-      </c>
-      <c r="BG43">
-        <v>0</v>
-      </c>
-      <c r="BH43">
-        <v>1</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ43">
-        <v>3</v>
-      </c>
-      <c r="BL43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BM43">
-        <v>0.01521037112165617</v>
-      </c>
-      <c r="BN43">
-        <v>1</v>
-      </c>
-      <c r="BO43">
-        <v>1</v>
-      </c>
-      <c r="BP43">
-        <v>1</v>
-      </c>
-      <c r="BQ43">
-        <v>0</v>
-      </c>
-      <c r="BR43" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:71">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.0008482914806944428</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K44">
-        <v>0.0008575711381620195</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>2</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T44">
-        <v>0.0009706569639674451</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>3</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC44">
-        <v>0.01068726249862232</v>
-      </c>
-      <c r="AD44">
-        <v>1</v>
-      </c>
-      <c r="AE44">
-        <v>1</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>3</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL44">
-        <v>0.001149498824135679</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>3</v>
-      </c>
-      <c r="AT44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AU44">
-        <v>0.01356952740263572</v>
-      </c>
-      <c r="AV44">
-        <v>1</v>
-      </c>
-      <c r="AW44">
-        <v>1</v>
-      </c>
-      <c r="AX44">
-        <v>1</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>3</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD44">
-        <v>0.001435645800404854</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>1</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>3</v>
-      </c>
-      <c r="BL44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BM44">
-        <v>0.01511160247800905</v>
-      </c>
-      <c r="BN44">
-        <v>1</v>
-      </c>
-      <c r="BO44">
-        <v>1</v>
-      </c>
-      <c r="BP44">
-        <v>1</v>
-      </c>
-      <c r="BQ44">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:71">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.0008482914806944428</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K45">
-        <v>0.0008549964596106366</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>3</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T45">
-        <v>0.0009706569639674451</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>3</v>
-      </c>
-      <c r="AB45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC45">
-        <v>0.01061786469018971</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AE45">
-        <v>1</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
-      <c r="AG45">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>4</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL45">
-        <v>0.001149498824135679</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>1</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>3</v>
-      </c>
-      <c r="AT45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU45">
-        <v>0.01348141358833289</v>
-      </c>
-      <c r="AV45">
-        <v>1</v>
-      </c>
-      <c r="AW45">
-        <v>1</v>
-      </c>
-      <c r="AX45">
-        <v>1</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>4</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD45">
-        <v>0.001435645800404854</v>
-      </c>
-      <c r="BE45">
-        <v>1</v>
-      </c>
-      <c r="BF45">
-        <v>1</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <v>1</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>3</v>
-      </c>
-      <c r="BL45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM45">
-        <v>0.01511160247800905</v>
-      </c>
-      <c r="BN45">
-        <v>1</v>
-      </c>
-      <c r="BO45">
-        <v>1</v>
-      </c>
-      <c r="BP45">
-        <v>1</v>
-      </c>
-      <c r="BQ45">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:71">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.0008379927664889114</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>7</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K46">
-        <v>0.0008524217810592537</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>4</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T46">
-        <v>0.0009217380714911707</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>7</v>
-      </c>
-      <c r="AB46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC46">
-        <v>0.01061786469018971</v>
-      </c>
-      <c r="AD46">
-        <v>1</v>
-      </c>
-      <c r="AE46">
-        <v>1</v>
-      </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>4</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL46">
-        <v>0.001044135055725242</v>
-      </c>
-      <c r="AM46">
-        <v>1</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>7</v>
-      </c>
-      <c r="AT46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU46">
-        <v>0.01348141358833289</v>
-      </c>
-      <c r="AV46">
-        <v>1</v>
-      </c>
-      <c r="AW46">
-        <v>1</v>
-      </c>
-      <c r="AX46">
-        <v>1</v>
-      </c>
-      <c r="AY46">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <v>4</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD46">
-        <v>0.001239970230499756</v>
-      </c>
-      <c r="BE46">
-        <v>1</v>
-      </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
-      <c r="BG46">
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <v>1</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>7</v>
-      </c>
-      <c r="BL46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM46">
-        <v>0.01491406519071481</v>
-      </c>
-      <c r="BN46">
-        <v>1</v>
-      </c>
-      <c r="BO46">
-        <v>1</v>
-      </c>
-      <c r="BP46">
-        <v>1</v>
-      </c>
-      <c r="BQ46">
-        <v>0</v>
-      </c>
-      <c r="BR46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:71">
-      <c r="J47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K47">
-        <v>0.0008524217810592537</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>4</v>
-      </c>
-      <c r="AB47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC47">
-        <v>0.01047906907332448</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-      <c r="AE47">
-        <v>1</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>6</v>
-      </c>
-      <c r="AT47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU47">
-        <v>0.01330518595972723</v>
-      </c>
-      <c r="AV47">
-        <v>1</v>
-      </c>
-      <c r="AW47">
-        <v>1</v>
-      </c>
-      <c r="AX47">
-        <v>1</v>
-      </c>
-      <c r="AY47">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>6</v>
-      </c>
-      <c r="BL47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM47">
-        <v>0.01432145332883211</v>
-      </c>
-      <c r="BN47">
-        <v>1</v>
-      </c>
-      <c r="BO47">
-        <v>1</v>
-      </c>
-      <c r="BP47">
-        <v>1</v>
-      </c>
-      <c r="BQ47">
-        <v>0</v>
-      </c>
-      <c r="BR47" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:71">
-      <c r="J48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K48">
-        <v>0.000847272423956488</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>6</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC48">
-        <v>0.01006268222272881</v>
-      </c>
-      <c r="AD48">
-        <v>1</v>
-      </c>
-      <c r="AE48">
-        <v>1</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>12</v>
-      </c>
-      <c r="AT48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AU48">
-        <v>0.01277650307391025</v>
-      </c>
-      <c r="AV48">
-        <v>1</v>
-      </c>
-      <c r="AW48">
-        <v>1</v>
-      </c>
-      <c r="AX48">
-        <v>1</v>
-      </c>
-      <c r="AY48">
-        <v>0</v>
-      </c>
-      <c r="AZ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>12</v>
-      </c>
-      <c r="BL48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM48">
-        <v>0.01402514739789075</v>
-      </c>
-      <c r="BN48">
-        <v>1</v>
-      </c>
-      <c r="BO48">
-        <v>1</v>
-      </c>
-      <c r="BP48">
-        <v>1</v>
-      </c>
-      <c r="BQ48">
-        <v>0</v>
-      </c>
-      <c r="BR48" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="10:71">
-      <c r="J49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K49">
-        <v>0.0008318243526481909</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>12</v>
-      </c>
-      <c r="AB49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC49">
-        <v>0.009854488797430968</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AE49">
-        <v>1</v>
-      </c>
-      <c r="AF49">
-        <v>1</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>15</v>
-      </c>
-      <c r="AT49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU49">
-        <v>0.01251216163100176</v>
-      </c>
-      <c r="AV49">
-        <v>1</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
-      <c r="AX49">
-        <v>1</v>
-      </c>
-      <c r="AY49">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA49">
-        <v>15</v>
-      </c>
-      <c r="BL49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BM49">
-        <v>0.01392637875424363</v>
-      </c>
-      <c r="BN49">
-        <v>1</v>
-      </c>
-      <c r="BO49">
-        <v>1</v>
-      </c>
-      <c r="BP49">
-        <v>1</v>
-      </c>
-      <c r="BQ49">
-        <v>0</v>
-      </c>
-      <c r="BR49" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS49">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="10:71">
-      <c r="J50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K50">
-        <v>0.0008241003169940423</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>15</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC50">
-        <v>0.009785090988998355</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AE50">
-        <v>1</v>
-      </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <v>16</v>
-      </c>
-      <c r="AT50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU50">
-        <v>0.01242404781669893</v>
-      </c>
-      <c r="AV50">
-        <v>1</v>
-      </c>
-      <c r="AW50">
-        <v>1</v>
-      </c>
-      <c r="AX50">
-        <v>1</v>
-      </c>
-      <c r="AY50">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>16</v>
-      </c>
-      <c r="BL50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM50">
-        <v>0.0113836037718661</v>
-      </c>
-      <c r="BN50">
-        <v>15</v>
-      </c>
-      <c r="BO50">
-        <v>15</v>
-      </c>
-      <c r="BP50">
-        <v>1</v>
-      </c>
-      <c r="BQ50">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS50">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="10:71">
-      <c r="J51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K51">
-        <v>0.0008215256384426594</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>16</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC51">
-        <v>0.007912034726629116</v>
-      </c>
-      <c r="AD51">
-        <v>2</v>
-      </c>
-      <c r="AE51">
-        <v>2</v>
-      </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI51">
-        <v>85</v>
-      </c>
-      <c r="AT51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU51">
-        <v>0.00845942285125687</v>
-      </c>
-      <c r="AV51">
-        <v>2</v>
-      </c>
-      <c r="AW51">
-        <v>2</v>
-      </c>
-      <c r="AX51">
-        <v>1</v>
-      </c>
-      <c r="AY51">
-        <v>0</v>
-      </c>
-      <c r="AZ51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA51">
-        <v>85</v>
-      </c>
-      <c r="BL51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM51">
-        <v>0.008771045271843941</v>
-      </c>
-      <c r="BN51">
-        <v>2</v>
-      </c>
-      <c r="BO51">
-        <v>2</v>
-      </c>
-      <c r="BP51">
-        <v>1</v>
-      </c>
-      <c r="BQ51">
-        <v>0</v>
-      </c>
-      <c r="BR51" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS51">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="10:71">
-      <c r="J52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K52">
-        <v>0.0006567462111541563</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>80</v>
-      </c>
-      <c r="AB52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC52">
-        <v>0.005343631249311158</v>
-      </c>
-      <c r="AD52">
-        <v>1</v>
-      </c>
-      <c r="AE52">
-        <v>1</v>
-      </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>80</v>
-      </c>
-      <c r="AT52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU52">
-        <v>0.006784763701317858</v>
-      </c>
-      <c r="AV52">
-        <v>1</v>
-      </c>
-      <c r="AW52">
-        <v>1</v>
-      </c>
-      <c r="AX52">
-        <v>1</v>
-      </c>
-      <c r="AY52">
-        <v>0</v>
-      </c>
-      <c r="AZ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA52">
-        <v>80</v>
-      </c>
-      <c r="BL52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BM52">
-        <v>0.007605185560828083</v>
-      </c>
-      <c r="BN52">
-        <v>1</v>
-      </c>
-      <c r="BO52">
-        <v>1</v>
-      </c>
-      <c r="BP52">
-        <v>1</v>
-      </c>
-      <c r="BQ52">
-        <v>0</v>
-      </c>
-      <c r="BR52" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS52">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="10:71">
-      <c r="J53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K53">
-        <v>0.0004584959626976759</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>157</v>
-      </c>
-      <c r="AB53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>1</v>
-      </c>
-      <c r="AE53">
-        <v>1</v>
-      </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>157</v>
-      </c>
-      <c r="AT53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AU53">
-        <v>0</v>
-      </c>
-      <c r="AV53">
-        <v>1</v>
-      </c>
-      <c r="AW53">
-        <v>1</v>
-      </c>
-      <c r="AX53">
-        <v>1</v>
-      </c>
-      <c r="AY53">
-        <v>0</v>
-      </c>
-      <c r="AZ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA53">
-        <v>157</v>
-      </c>
-      <c r="BL53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM53">
-        <v>0</v>
-      </c>
-      <c r="BN53">
-        <v>1</v>
-      </c>
-      <c r="BO53">
-        <v>1</v>
-      </c>
-      <c r="BP53">
-        <v>1</v>
-      </c>
-      <c r="BQ53">
-        <v>0</v>
-      </c>
-      <c r="BR53" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS53">
-        <v>157</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
